--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6bc6fcd21a4d7d4/Desktop/PAINEL COLHEITA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66EF5CAB-13B5-43DE-A9A4-D7D1B34E1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{66EF5CAB-13B5-43DE-A9A4-D7D1B34E1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC54D691-F022-4F29-A38A-C7DE5616C724}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{199483B3-C15A-4AF9-A578-E14AD05AD7CD}"/>
   </bookViews>
@@ -36,10 +36,10 @@
     <t>perfil</t>
   </si>
   <si>
-    <t>MAURICIO</t>
+    <t>mauricio</t>
   </si>
   <si>
-    <t>ADMIN</t>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6bc6fcd21a4d7d4/Desktop/PAINEL COLHEITA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{66EF5CAB-13B5-43DE-A9A4-D7D1B34E1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC54D691-F022-4F29-A38A-C7DE5616C724}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{66EF5CAB-13B5-43DE-A9A4-D7D1B34E1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E98B8F2-4DFD-40EB-8FC3-3CCD627AF656}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{199483B3-C15A-4AF9-A578-E14AD05AD7CD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>usuario</t>
   </si>
@@ -36,10 +36,10 @@
     <t>perfil</t>
   </si>
   <si>
-    <t>mauricio</t>
+    <t>admin</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>teste</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,13 +423,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>3081995</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
